--- a/Przypadki_testowe.xlsx
+++ b/Przypadki_testowe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10dd0dc31595724b/Dokumenty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{E9E00328-C04D-284E-A423-89CB253FCB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFAECD39-75C4-AD4D-B07A-C9E7A26048FF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{E9E00328-C04D-284E-A423-89CB253FCB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{954B79F3-D9BC-1749-A967-57EF897B96C3}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{470D5B9E-8B6C-3C4F-9AE9-86EB8E1C0585}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{470D5B9E-8B6C-3C4F-9AE9-86EB8E1C0585}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -2130,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B9ED41-1971-D049-8C44-37462D988A53}">
   <dimension ref="B2:L377"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2210,7 +2210,9 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="43"/>
-      <c r="L3" s="33"/>
+      <c r="L3" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="18" customHeight="1">
       <c r="B4" s="8"/>
@@ -2305,7 +2307,9 @@
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="43"/>
-      <c r="L8" s="33"/>
+      <c r="L8" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="20" customHeight="1">
       <c r="B9" s="8"/>
@@ -2400,7 +2404,9 @@
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="43"/>
-      <c r="L13" s="33"/>
+      <c r="L13" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="20" customHeight="1">
       <c r="B14" s="8"/>
@@ -2478,7 +2484,9 @@
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="33"/>
+      <c r="L17" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:12" ht="20" customHeight="1">
       <c r="B18" s="8"/>
@@ -2558,7 +2566,9 @@
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="43"/>
-      <c r="L21" s="33"/>
+      <c r="L21" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="2:12" ht="21" customHeight="1">
       <c r="B22" s="8"/>
@@ -2638,7 +2648,9 @@
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="43"/>
-      <c r="L25" s="33"/>
+      <c r="L25" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="2:12" ht="24" customHeight="1">
       <c r="B26" s="8"/>
@@ -2731,7 +2743,9 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="43"/>
-      <c r="L30" s="33"/>
+      <c r="L30" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="2:12" ht="20" customHeight="1">
       <c r="B31" s="8"/>
@@ -2822,7 +2836,9 @@
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="43"/>
-      <c r="L35" s="33"/>
+      <c r="L35" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="2:12" ht="19" customHeight="1">
       <c r="B36" s="8"/>
@@ -2900,7 +2916,9 @@
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="43"/>
-      <c r="L39" s="33"/>
+      <c r="L39" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="2:12" ht="19" customHeight="1">
       <c r="B40" s="8"/>
@@ -2963,7 +2981,9 @@
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="43"/>
-      <c r="L42" s="33"/>
+      <c r="L42" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:12" ht="20" customHeight="1">
       <c r="B43" s="8"/>
@@ -3026,7 +3046,9 @@
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="43"/>
-      <c r="L45" s="33"/>
+      <c r="L45" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="2:12" ht="19" customHeight="1">
       <c r="B46" s="8"/>
@@ -3087,7 +3109,9 @@
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="43"/>
-      <c r="L48" s="33"/>
+      <c r="L48" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="2:12" ht="19" customHeight="1">
       <c r="B49" s="8"/>
@@ -3163,7 +3187,9 @@
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="43"/>
-      <c r="L52" s="33"/>
+      <c r="L52" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="2:12" ht="22" customHeight="1">
       <c r="B53" s="8"/>
@@ -3239,7 +3265,9 @@
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="43"/>
-      <c r="L56" s="33"/>
+      <c r="L56" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="2:12" ht="24" customHeight="1">
       <c r="B57" s="8"/>
@@ -3315,7 +3343,9 @@
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="43"/>
-      <c r="L60" s="33"/>
+      <c r="L60" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="2:12" ht="25" customHeight="1">
       <c r="B61" s="8"/>
@@ -3393,7 +3423,9 @@
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="43"/>
-      <c r="L64" s="33"/>
+      <c r="L64" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="2:12" ht="23" customHeight="1">
       <c r="B65" s="8"/>
@@ -3473,7 +3505,9 @@
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="43"/>
-      <c r="L68" s="33"/>
+      <c r="L68" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="69" spans="2:12" ht="22" customHeight="1">
       <c r="B69" s="8"/>
@@ -3574,7 +3608,9 @@
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="43"/>
-      <c r="L73" s="33"/>
+      <c r="L73" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="2:12" ht="22" customHeight="1">
       <c r="B74" s="8"/>
@@ -3675,7 +3711,9 @@
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="43"/>
-      <c r="L78" s="33"/>
+      <c r="L78" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="2:12" ht="22" customHeight="1">
       <c r="B79" s="8"/>
@@ -3776,7 +3814,9 @@
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="43"/>
-      <c r="L83" s="33"/>
+      <c r="L83" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="2:12" ht="23" customHeight="1">
       <c r="B84" s="8"/>
@@ -3877,7 +3917,9 @@
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="43"/>
-      <c r="L88" s="33"/>
+      <c r="L88" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="2:12" ht="22" customHeight="1">
       <c r="B89" s="8"/>
@@ -3978,7 +4020,9 @@
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="43"/>
-      <c r="L93" s="33"/>
+      <c r="L93" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="2:12" ht="24" customHeight="1">
       <c r="B94" s="8"/>
@@ -4079,7 +4123,9 @@
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="43"/>
-      <c r="L98" s="33"/>
+      <c r="L98" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="99" spans="2:12" ht="21" customHeight="1">
       <c r="B99" s="8"/>
@@ -4180,7 +4226,9 @@
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="43"/>
-      <c r="L103" s="33"/>
+      <c r="L103" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" spans="2:12" ht="22" customHeight="1">
       <c r="B104" s="8"/>
@@ -4281,7 +4329,9 @@
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="43"/>
-      <c r="L108" s="33"/>
+      <c r="L108" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" spans="2:12" ht="24" customHeight="1">
       <c r="B109" s="8"/>
@@ -4344,7 +4394,9 @@
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="43"/>
-      <c r="L111" s="33"/>
+      <c r="L111" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="2:12" ht="22" customHeight="1">
       <c r="B112" s="8"/>
@@ -4460,7 +4512,9 @@
       </c>
       <c r="J117" s="5"/>
       <c r="K117" s="43"/>
-      <c r="L117" s="33"/>
+      <c r="L117" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="2:12" ht="22" customHeight="1">
       <c r="B118" s="8"/>
@@ -4538,7 +4592,9 @@
       </c>
       <c r="J121" s="5"/>
       <c r="K121" s="43"/>
-      <c r="L121" s="33"/>
+      <c r="L121" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" spans="2:12" ht="24" customHeight="1">
       <c r="B122" s="8"/>
@@ -4646,7 +4702,9 @@
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="43"/>
-      <c r="L127" s="33"/>
+      <c r="L127" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="2:12" ht="24" customHeight="1">
       <c r="B128" s="8"/>
@@ -4754,7 +4812,9 @@
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="43"/>
-      <c r="L133" s="33"/>
+      <c r="L133" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="134" spans="2:12" ht="24" customHeight="1">
       <c r="B134" s="8"/>
@@ -4847,7 +4907,9 @@
       </c>
       <c r="J138" s="5"/>
       <c r="K138" s="43"/>
-      <c r="L138" s="33"/>
+      <c r="L138" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="2:12" ht="25" customHeight="1">
       <c r="B139" s="8"/>
@@ -4985,7 +5047,9 @@
       </c>
       <c r="J146" s="5"/>
       <c r="K146" s="43"/>
-      <c r="L146" s="33"/>
+      <c r="L146" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="147" spans="2:12" ht="36" customHeight="1">
       <c r="B147" s="8"/>
@@ -5093,7 +5157,9 @@
       </c>
       <c r="J152" s="5"/>
       <c r="K152" s="43"/>
-      <c r="L152" s="33"/>
+      <c r="L152" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="153" spans="2:12" ht="26" customHeight="1">
       <c r="B153" s="8"/>
@@ -5231,7 +5297,9 @@
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="43"/>
-      <c r="L160" s="33"/>
+      <c r="L160" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="161" spans="2:12" ht="33" customHeight="1">
       <c r="B161" s="8"/>
@@ -5354,7 +5422,9 @@
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="43"/>
-      <c r="L167" s="33"/>
+      <c r="L167" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="168" spans="2:12" ht="19" customHeight="1">
       <c r="B168" s="8"/>
@@ -5447,7 +5517,9 @@
       </c>
       <c r="J172" s="5"/>
       <c r="K172" s="43"/>
-      <c r="L172" s="33"/>
+      <c r="L172" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="173" spans="2:12" ht="32" customHeight="1">
       <c r="B173" s="8"/>
@@ -5525,7 +5597,9 @@
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="43"/>
-      <c r="L176" s="33"/>
+      <c r="L176" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="177" spans="2:12" ht="24" customHeight="1">
       <c r="B177" s="8"/>
@@ -5603,7 +5677,9 @@
       </c>
       <c r="J180" s="5"/>
       <c r="K180" s="43"/>
-      <c r="L180" s="33"/>
+      <c r="L180" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="181" spans="2:12" ht="27" customHeight="1">
       <c r="B181" s="8"/>
@@ -5681,7 +5757,9 @@
       </c>
       <c r="J184" s="5"/>
       <c r="K184" s="43"/>
-      <c r="L184" s="33"/>
+      <c r="L184" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="185" spans="2:12" ht="25" customHeight="1">
       <c r="B185" s="8"/>
@@ -5759,7 +5837,9 @@
       </c>
       <c r="J188" s="4"/>
       <c r="K188" s="43"/>
-      <c r="L188" s="33"/>
+      <c r="L188" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="189" spans="2:12" ht="26" customHeight="1">
       <c r="B189" s="8"/>
@@ -5852,7 +5932,9 @@
       </c>
       <c r="J193" s="5"/>
       <c r="K193" s="43"/>
-      <c r="L193" s="33"/>
+      <c r="L193" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="194" spans="2:12" ht="25" customHeight="1">
       <c r="B194" s="8"/>
@@ -5915,7 +5997,9 @@
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="43"/>
-      <c r="L196" s="33"/>
+      <c r="L196" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="2:12" ht="25" customHeight="1">
       <c r="B197" s="8"/>
@@ -6008,7 +6092,9 @@
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="43"/>
-      <c r="L201" s="33"/>
+      <c r="L201" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="2:12" ht="25" customHeight="1">
       <c r="B202" s="8"/>
@@ -6071,7 +6157,9 @@
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="43"/>
-      <c r="L204" s="33"/>
+      <c r="L204" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="205" spans="2:12" ht="24" customHeight="1">
       <c r="B205" s="8"/>
@@ -6134,7 +6222,9 @@
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="43"/>
-      <c r="L207" s="33"/>
+      <c r="L207" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="208" spans="2:12" ht="22" customHeight="1">
       <c r="B208" s="8"/>
@@ -6197,7 +6287,9 @@
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="43"/>
-      <c r="L210" s="33"/>
+      <c r="L210" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" spans="2:12" ht="22" customHeight="1">
       <c r="B211" s="8"/>
@@ -6290,7 +6382,9 @@
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="43"/>
-      <c r="L215" s="33"/>
+      <c r="L215" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="216" spans="2:12" ht="25" customHeight="1">
       <c r="B216" s="8"/>
@@ -6398,7 +6492,9 @@
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="43"/>
-      <c r="L221" s="33"/>
+      <c r="L221" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="2:12" ht="27" customHeight="1">
       <c r="B222" s="8"/>
@@ -6476,7 +6572,9 @@
       </c>
       <c r="J225" s="5"/>
       <c r="K225" s="43"/>
-      <c r="L225" s="33"/>
+      <c r="L225" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" spans="2:12" ht="29" customHeight="1">
       <c r="B226" s="8"/>
@@ -6539,7 +6637,9 @@
       </c>
       <c r="J228" s="5"/>
       <c r="K228" s="43"/>
-      <c r="L228" s="33"/>
+      <c r="L228" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="229" spans="2:12" ht="32" customHeight="1">
       <c r="B229" s="8"/>
@@ -6617,7 +6717,9 @@
       </c>
       <c r="J232" s="5"/>
       <c r="K232" s="43"/>
-      <c r="L232" s="33"/>
+      <c r="L232" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="233" spans="2:12" ht="25" customHeight="1">
       <c r="B233" s="8"/>
@@ -6680,7 +6782,9 @@
       </c>
       <c r="J235" s="5"/>
       <c r="K235" s="43"/>
-      <c r="L235" s="33"/>
+      <c r="L235" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="236" spans="2:12" ht="22" customHeight="1">
       <c r="B236" s="8"/>
@@ -6773,7 +6877,9 @@
       </c>
       <c r="J240" s="5"/>
       <c r="K240" s="43"/>
-      <c r="L240" s="33"/>
+      <c r="L240" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="241" spans="2:12" ht="22" customHeight="1">
       <c r="B241" s="8"/>
@@ -6834,7 +6940,9 @@
       </c>
       <c r="J243" s="5"/>
       <c r="K243" s="43"/>
-      <c r="L243" s="33"/>
+      <c r="L243" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="244" spans="2:12" ht="21" customHeight="1">
       <c r="B244" s="8"/>
@@ -6927,7 +7035,9 @@
       </c>
       <c r="J248" s="5"/>
       <c r="K248" s="43"/>
-      <c r="L248" s="33"/>
+      <c r="L248" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="249" spans="2:12" ht="30" customHeight="1">
       <c r="B249" s="8"/>
@@ -7005,7 +7115,9 @@
       </c>
       <c r="J252" s="5"/>
       <c r="K252" s="43"/>
-      <c r="L252" s="33"/>
+      <c r="L252" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="253" spans="2:12" ht="25" customHeight="1">
       <c r="B253" s="8"/>
@@ -7098,7 +7210,9 @@
       </c>
       <c r="J257" s="4"/>
       <c r="K257" s="43"/>
-      <c r="L257" s="33"/>
+      <c r="L257" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="258" spans="2:12" ht="32" customHeight="1">
       <c r="B258" s="8"/>
@@ -7161,7 +7275,9 @@
       </c>
       <c r="J260" s="4"/>
       <c r="K260" s="43"/>
-      <c r="L260" s="33"/>
+      <c r="L260" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" spans="2:12" ht="24" customHeight="1">
       <c r="B261" s="8"/>
@@ -7239,7 +7355,9 @@
       </c>
       <c r="J264" s="4"/>
       <c r="K264" s="43"/>
-      <c r="L264" s="33"/>
+      <c r="L264" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="265" spans="2:12" ht="22" customHeight="1">
       <c r="B265" s="8"/>
@@ -7317,7 +7435,9 @@
       </c>
       <c r="J268" s="4"/>
       <c r="K268" s="43"/>
-      <c r="L268" s="33"/>
+      <c r="L268" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" spans="2:12" ht="26" customHeight="1">
       <c r="B269" s="8"/>
@@ -7395,7 +7515,9 @@
       </c>
       <c r="J272" s="4"/>
       <c r="K272" s="43"/>
-      <c r="L272" s="33"/>
+      <c r="L272" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" spans="2:12" ht="26" customHeight="1">
       <c r="B273" s="8"/>
@@ -7473,7 +7595,9 @@
       </c>
       <c r="J276" s="4"/>
       <c r="K276" s="43"/>
-      <c r="L276" s="33"/>
+      <c r="L276" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="277" spans="2:12" ht="26" customHeight="1">
       <c r="B277" s="8"/>
@@ -7551,7 +7675,9 @@
       </c>
       <c r="J280" s="4"/>
       <c r="K280" s="43"/>
-      <c r="L280" s="33"/>
+      <c r="L280" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="281" spans="2:12" ht="24" customHeight="1">
       <c r="B281" s="8"/>
@@ -7644,7 +7770,9 @@
       </c>
       <c r="J285" s="4"/>
       <c r="K285" s="43"/>
-      <c r="L285" s="33"/>
+      <c r="L285" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="286" spans="2:12" ht="26" customHeight="1">
       <c r="B286" s="8"/>
@@ -7737,7 +7865,9 @@
       </c>
       <c r="J290" s="4"/>
       <c r="K290" s="43"/>
-      <c r="L290" s="33"/>
+      <c r="L290" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="291" spans="2:12" ht="25" customHeight="1">
       <c r="B291" s="8"/>
@@ -7830,7 +7960,9 @@
       </c>
       <c r="J295" s="4"/>
       <c r="K295" s="43"/>
-      <c r="L295" s="33"/>
+      <c r="L295" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="2:12" ht="25" customHeight="1">
       <c r="B296" s="8"/>
@@ -7936,7 +8068,9 @@
       </c>
       <c r="J301" s="36"/>
       <c r="K301" s="43"/>
-      <c r="L301" s="33"/>
+      <c r="L301" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="302" spans="2:12" ht="23" customHeight="1">
       <c r="B302" s="8"/>
@@ -7993,7 +8127,9 @@
       </c>
       <c r="J304" s="36"/>
       <c r="K304" s="43"/>
-      <c r="L304" s="33"/>
+      <c r="L304" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="305" spans="2:12" ht="21" customHeight="1">
       <c r="B305" s="8"/>
@@ -8050,7 +8186,9 @@
       </c>
       <c r="J307" s="36"/>
       <c r="K307" s="43"/>
-      <c r="L307" s="33"/>
+      <c r="L307" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="308" spans="2:12" ht="22" customHeight="1">
       <c r="B308" s="8"/>
@@ -8107,7 +8245,9 @@
       </c>
       <c r="J310" s="36"/>
       <c r="K310" s="43"/>
-      <c r="L310" s="33"/>
+      <c r="L310" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="311" spans="2:12" ht="24" customHeight="1">
       <c r="B311" s="8"/>
@@ -8164,7 +8304,9 @@
       </c>
       <c r="J313" s="36"/>
       <c r="K313" s="43"/>
-      <c r="L313" s="33"/>
+      <c r="L313" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="314" spans="2:12" ht="24" customHeight="1">
       <c r="B314" s="8"/>
@@ -8221,7 +8363,9 @@
       </c>
       <c r="J316" s="36"/>
       <c r="K316" s="43"/>
-      <c r="L316" s="33"/>
+      <c r="L316" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="317" spans="2:12" ht="25" customHeight="1">
       <c r="B317" s="8"/>
@@ -8278,7 +8422,9 @@
       </c>
       <c r="J319" s="36"/>
       <c r="K319" s="43"/>
-      <c r="L319" s="33"/>
+      <c r="L319" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="320" spans="2:12" ht="25" customHeight="1">
       <c r="B320" s="8"/>
@@ -8335,7 +8481,9 @@
       </c>
       <c r="J322" s="36"/>
       <c r="K322" s="43"/>
-      <c r="L322" s="33"/>
+      <c r="L322" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="323" spans="2:12" ht="22" customHeight="1">
       <c r="B323" s="8"/>
@@ -8392,7 +8540,9 @@
       </c>
       <c r="J325" s="36"/>
       <c r="K325" s="43"/>
-      <c r="L325" s="33"/>
+      <c r="L325" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="326" spans="2:12" ht="23" customHeight="1">
       <c r="B326" s="8"/>
@@ -8449,7 +8599,9 @@
       </c>
       <c r="J328" s="36"/>
       <c r="K328" s="43"/>
-      <c r="L328" s="33"/>
+      <c r="L328" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="329" spans="2:12" ht="22" customHeight="1">
       <c r="B329" s="8"/>
@@ -8506,7 +8658,9 @@
       </c>
       <c r="J331" s="36"/>
       <c r="K331" s="43"/>
-      <c r="L331" s="33"/>
+      <c r="L331" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="332" spans="2:12" ht="23" customHeight="1">
       <c r="B332" s="8"/>
@@ -8563,7 +8717,9 @@
       </c>
       <c r="J334" s="36"/>
       <c r="K334" s="43"/>
-      <c r="L334" s="33"/>
+      <c r="L334" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="335" spans="2:12" ht="27" customHeight="1">
       <c r="B335" s="8"/>
@@ -8620,7 +8776,9 @@
       </c>
       <c r="J337" s="36"/>
       <c r="K337" s="43"/>
-      <c r="L337" s="33"/>
+      <c r="L337" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="338" spans="2:12" ht="27" customHeight="1">
       <c r="B338" s="8"/>
@@ -8677,7 +8835,9 @@
       </c>
       <c r="J340" s="36"/>
       <c r="K340" s="43"/>
-      <c r="L340" s="33"/>
+      <c r="L340" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="341" spans="2:12" ht="27" customHeight="1">
       <c r="B341" s="8"/>
@@ -8734,7 +8894,9 @@
       </c>
       <c r="J343" s="36"/>
       <c r="K343" s="43"/>
-      <c r="L343" s="33"/>
+      <c r="L343" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="344" spans="2:12" ht="31" customHeight="1">
       <c r="B344" s="8"/>
@@ -8791,7 +8953,9 @@
       </c>
       <c r="J346" s="36"/>
       <c r="K346" s="43"/>
-      <c r="L346" s="33"/>
+      <c r="L346" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="347" spans="2:12" ht="26" customHeight="1">
       <c r="B347" s="8"/>
@@ -8848,7 +9012,9 @@
       </c>
       <c r="J349" s="36"/>
       <c r="K349" s="43"/>
-      <c r="L349" s="33"/>
+      <c r="L349" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="350" spans="2:12" ht="25" customHeight="1">
       <c r="B350" s="8"/>
@@ -8905,7 +9071,9 @@
       </c>
       <c r="J352" s="36"/>
       <c r="K352" s="43"/>
-      <c r="L352" s="33"/>
+      <c r="L352" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="353" spans="2:12" ht="24" customHeight="1">
       <c r="B353" s="30"/>
@@ -8992,7 +9160,9 @@
       </c>
       <c r="J357" s="5"/>
       <c r="K357" s="43"/>
-      <c r="L357" s="33"/>
+      <c r="L357" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="358" spans="2:12" ht="31" customHeight="1">
       <c r="B358" s="8"/>
@@ -9087,7 +9257,9 @@
       </c>
       <c r="J362" s="5"/>
       <c r="K362" s="43"/>
-      <c r="L362" s="33"/>
+      <c r="L362" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="363" spans="2:12" ht="23" customHeight="1">
       <c r="B363" s="8"/>
@@ -9182,7 +9354,9 @@
       </c>
       <c r="J367" s="5"/>
       <c r="K367" s="43"/>
-      <c r="L367" s="33"/>
+      <c r="L367" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="368" spans="2:12" ht="23" customHeight="1">
       <c r="B368" s="8"/>
@@ -9275,7 +9449,9 @@
       </c>
       <c r="J372" s="5"/>
       <c r="K372" s="43"/>
-      <c r="L372" s="33"/>
+      <c r="L372" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="373" spans="2:12" ht="17" customHeight="1">
       <c r="B373" s="8"/>
